--- a/Sezgisel.xlsx
+++ b/Sezgisel.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burak\Desktop\CursorProjects\SezgiselProje\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28BE322-393C-4042-9E6C-F578A8167BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Deneysel Tasarım" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,56 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>deneysel tasarım ile en iyi parametreler buluncak</t>
+  </si>
+  <si>
+    <t>testlerin 10 replikasyonu çalıştırılcak ve gapini alcaz</t>
+  </si>
+  <si>
+    <t>Zaman bazlı çalıştırılabili</t>
+  </si>
+  <si>
+    <t>Elitizm Oranı (ER</t>
+  </si>
+  <si>
+    <t>Çaprazlama Oranı (CR</t>
+  </si>
+  <si>
+    <t>Mutasyon Oranı (MR)</t>
+  </si>
+  <si>
+    <t>1. Bağımsız Değişkenler (Kontrol Edilebilir Parametreler):</t>
+  </si>
+  <si>
+    <t>1. Bağımlı Değişken (Ölçülen Sonuç):</t>
+  </si>
+  <si>
+    <t>1. Kontrol Değişkenleri (Sabit Tutulan Parametreler):</t>
+  </si>
+  <si>
+    <t>Toplam Mesafe:</t>
+  </si>
+  <si>
+    <t>Popülasyon Boyutu (PS): Şehir sayısına eşit (48)</t>
+  </si>
+  <si>
+    <t>Maksimum İterasyon: 700</t>
+  </si>
+  <si>
+    <t>RNG Seed: 42 (tekrarlanabilirlik için)</t>
+  </si>
+  <si>
+    <t>Veri Seti: AT&amp;T 48 şehir problemi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +82,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +124,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +421,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ED20C7-F11F-4F48-9DBF-E24CBC4AE2A1}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="63.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.2" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>